--- a/data/trans_orig/Q5409-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Habitat-trans_orig.xlsx
@@ -757,19 +757,19 @@
         <v>4428</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11234</v>
+        <v>10131</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02961079480421064</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007624889108482162</v>
+        <v>0.007607638287084339</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07512545978360409</v>
+        <v>0.06774897738931988</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -778,19 +778,19 @@
         <v>4428</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11183</v>
+        <v>10587</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01673896087000428</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004352527267471008</v>
+        <v>0.004301138538600566</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04227487880519047</v>
+        <v>0.04002462789171789</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>9160</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4490</v>
+        <v>4506</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15739</v>
+        <v>15611</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07965812590475117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03904638974067186</v>
+        <v>0.03918472361869932</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1368763062966629</v>
+        <v>0.1357580164046163</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -828,19 +828,19 @@
         <v>3299</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8956</v>
+        <v>8946</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02206329988386612</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006687280264571393</v>
+        <v>0.006636065463971817</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05989468266753429</v>
+        <v>0.05982421108589401</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -849,19 +849,19 @@
         <v>12459</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6613</v>
+        <v>6811</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20688</v>
+        <v>21008</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04709981244329664</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02500088159161325</v>
+        <v>0.02574782070631892</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0782086849807869</v>
+        <v>0.07941943637323289</v>
       </c>
     </row>
     <row r="6">
@@ -878,19 +878,19 @@
         <v>105829</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>99250</v>
+        <v>99378</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>110499</v>
+        <v>110483</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9203418740952488</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8631236937033369</v>
+        <v>0.8642419835953851</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9609536102593281</v>
+        <v>0.9608152763813007</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>144</v>
@@ -899,19 +899,19 @@
         <v>141808</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>135083</v>
+        <v>134652</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>146172</v>
+        <v>146309</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9483259053119233</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9033560355798651</v>
+        <v>0.9004722548000481</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9775117999460109</v>
+        <v>0.9784236176542407</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>253</v>
@@ -920,19 +920,19 @@
         <v>247637</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>237709</v>
+        <v>237523</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>254495</v>
+        <v>253648</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9361612266866991</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8986285618955872</v>
+        <v>0.8979256502064816</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9620874347485272</v>
+        <v>0.9588842675611169</v>
       </c>
     </row>
     <row r="7">
@@ -1024,19 +1024,19 @@
         <v>4023</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1026</v>
+        <v>1033</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9306</v>
+        <v>9211</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02757819915426795</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007031143574900498</v>
+        <v>0.007082808056445888</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06378578855353133</v>
+        <v>0.06313392904963662</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1045,19 +1045,19 @@
         <v>6016</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2335</v>
+        <v>2340</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13249</v>
+        <v>13436</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03293263231731867</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01278310717083664</v>
+        <v>0.01281094653612029</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0725256858519156</v>
+        <v>0.07355072120080021</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -1066,19 +1066,19 @@
         <v>10039</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4685</v>
+        <v>5301</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17533</v>
+        <v>17781</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03055519151560909</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01425816904812329</v>
+        <v>0.01613345480179501</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05336220815590859</v>
+        <v>0.05411698535653542</v>
       </c>
     </row>
     <row r="9">
@@ -1095,19 +1095,19 @@
         <v>8854</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4045</v>
+        <v>4715</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16588</v>
+        <v>15489</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.06068778650339893</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0277255798376824</v>
+        <v>0.03231996060400816</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1137051797263597</v>
+        <v>0.1061728596555862</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -1116,19 +1116,19 @@
         <v>15913</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9441</v>
+        <v>9282</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26720</v>
+        <v>26037</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08711122982429881</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05168268787584557</v>
+        <v>0.05081071659185992</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1462678118296497</v>
+        <v>0.1425258912308182</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>23</v>
@@ -1137,19 +1137,19 @@
         <v>24767</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15909</v>
+        <v>15734</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>36012</v>
+        <v>36906</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07537886332353258</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04841969630728297</v>
+        <v>0.04788769691424325</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.109601764421492</v>
+        <v>0.1123227961616995</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>133012</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>124803</v>
+        <v>125937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138752</v>
+        <v>138986</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9117340143423331</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8554645973676172</v>
+        <v>0.8632410008939949</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9510769408681325</v>
+        <v>0.9526816872553033</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>151</v>
@@ -1187,19 +1187,19 @@
         <v>160750</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>148401</v>
+        <v>149043</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>168711</v>
+        <v>168966</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8799561378583826</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8123537454865782</v>
+        <v>0.8158677719873914</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.923533519315472</v>
+        <v>0.9249303476033718</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>284</v>
@@ -1208,19 +1208,19 @@
         <v>293761</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>279339</v>
+        <v>279975</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>303970</v>
+        <v>304248</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8940659451608584</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.850170281679701</v>
+        <v>0.8521073053134397</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.925136612017446</v>
+        <v>0.9259813386979877</v>
       </c>
     </row>
     <row r="11">
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6574</v>
+        <v>7662</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01602666232957522</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04838835535892921</v>
+        <v>0.05640267683794143</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6671</v>
+        <v>6574</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.009063406019864729</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0277702924474155</v>
+        <v>0.02736833923144627</v>
       </c>
     </row>
     <row r="13">
@@ -1375,19 +1375,19 @@
         <v>3173</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8549</v>
+        <v>7558</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03039929768715837</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007561053141024496</v>
+        <v>0.007454681418875404</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08190839890714482</v>
+        <v>0.07241264081427413</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1396,19 +1396,19 @@
         <v>9103</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3997</v>
+        <v>4263</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15758</v>
+        <v>16614</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06700623426943222</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0294198164377285</v>
+        <v>0.03138282543904648</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1159926666162163</v>
+        <v>0.1222989526577633</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1417,19 +1417,19 @@
         <v>12276</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6870</v>
+        <v>6856</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21566</v>
+        <v>21126</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05110127059740818</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02859861476337307</v>
+        <v>0.02853917541155377</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08977594527552446</v>
+        <v>0.08794464003130216</v>
       </c>
     </row>
     <row r="14">
@@ -1446,19 +1446,19 @@
         <v>101198</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>95822</v>
+        <v>96813</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>103582</v>
+        <v>103593</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9696007023128417</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9180916010928551</v>
+        <v>0.9275873591857258</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9924389468589756</v>
+        <v>0.9925453185811246</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -1467,19 +1467,19 @@
         <v>124570</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>117321</v>
+        <v>116722</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>130126</v>
+        <v>130331</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9169671034009925</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8636051084988779</v>
+        <v>0.8592005635160739</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9578617208415531</v>
+        <v>0.9593707107671825</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>227</v>
@@ -1488,19 +1488,19 @@
         <v>225768</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>216825</v>
+        <v>216858</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>231996</v>
+        <v>231924</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9398353233827271</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9026076062686436</v>
+        <v>0.9027450432599996</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.965759982405887</v>
+        <v>0.9654615859307081</v>
       </c>
     </row>
     <row r="15">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5080</v>
+        <v>5824</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01216361744590918</v>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03701961352470693</v>
+        <v>0.04244481475550524</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1613,19 +1613,19 @@
         <v>8935</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4338</v>
+        <v>4089</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16284</v>
+        <v>17536</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04279628508099092</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02077746795673685</v>
+        <v>0.01958384489867446</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07799728720519941</v>
+        <v>0.08399556912341957</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1634,19 +1634,19 @@
         <v>10604</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5187</v>
+        <v>5336</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17944</v>
+        <v>18295</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03064773581046451</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0149923421975378</v>
+        <v>0.01542241351679583</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0518625264185178</v>
+        <v>0.05287598527726994</v>
       </c>
     </row>
     <row r="17">
@@ -1663,19 +1663,19 @@
         <v>6567</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3276</v>
+        <v>3218</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11739</v>
+        <v>12326</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04785857823070514</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02387167415214386</v>
+        <v>0.02344991607189902</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08555350388508269</v>
+        <v>0.08982725168364421</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1684,19 +1684,19 @@
         <v>11940</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6497</v>
+        <v>6343</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21625</v>
+        <v>20564</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0571887877202459</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03111959006978889</v>
+        <v>0.03038217001330616</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1035816876437674</v>
+        <v>0.09849706556910814</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -1705,19 +1705,19 @@
         <v>18507</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>11354</v>
+        <v>11394</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27841</v>
+        <v>27586</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05348853833164196</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03281636186127358</v>
+        <v>0.03293033968734094</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08046737063420252</v>
+        <v>0.07972912768095368</v>
       </c>
     </row>
     <row r="18">
@@ -1734,19 +1734,19 @@
         <v>128981</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>123027</v>
+        <v>123012</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>132996</v>
+        <v>133073</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9399778043233857</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8965843019223779</v>
+        <v>0.8964787704710421</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.969235424093577</v>
+        <v>0.9698031794476004</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>181</v>
@@ -1755,19 +1755,19 @@
         <v>187902</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>177112</v>
+        <v>177812</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>195635</v>
+        <v>195381</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9000149271987632</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8483312371832532</v>
+        <v>0.85168571883199</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9370542109044021</v>
+        <v>0.9358363579089334</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>327</v>
@@ -1776,19 +1776,19 @@
         <v>316884</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>305692</v>
+        <v>306290</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>325669</v>
+        <v>326900</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9158637258578936</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8835151734530288</v>
+        <v>0.8852441164785079</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9412548937940555</v>
+        <v>0.9448102677852918</v>
       </c>
     </row>
     <row r="19">
@@ -1880,19 +1880,19 @@
         <v>5692</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12069</v>
+        <v>11567</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01132894410596954</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003874689723880378</v>
+        <v>0.003869835755158549</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02401942420545614</v>
+        <v>0.02302101554378607</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -1901,19 +1901,19 @@
         <v>21556</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13845</v>
+        <v>13532</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32953</v>
+        <v>33402</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03184804191901163</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02045554639608937</v>
+        <v>0.01999259134630678</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0486861012785144</v>
+        <v>0.0493493636031853</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -1922,19 +1922,19 @@
         <v>27249</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18760</v>
+        <v>17585</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40631</v>
+        <v>40036</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02310550045897313</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01590757757569539</v>
+        <v>0.01491137963309026</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03445296765629277</v>
+        <v>0.0339485363653978</v>
       </c>
     </row>
     <row r="21">
@@ -1951,19 +1951,19 @@
         <v>27753</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19302</v>
+        <v>19910</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38194</v>
+        <v>38990</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05523418290385554</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03841504804566999</v>
+        <v>0.03962516859662595</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07601334304915894</v>
+        <v>0.07759732741850235</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>37</v>
@@ -1972,19 +1972,19 @@
         <v>40255</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>28043</v>
+        <v>28881</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>54119</v>
+        <v>54270</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05947501065894207</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04143187769089356</v>
+        <v>0.04267060323449964</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07995810084155357</v>
+        <v>0.08018191468050861</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>68</v>
@@ -1993,19 +1993,19 @@
         <v>68008</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>52953</v>
+        <v>52213</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>86959</v>
+        <v>84147</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05766812749031852</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04490205460300742</v>
+        <v>0.04427419934232354</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0737373691828845</v>
+        <v>0.07135308655692045</v>
       </c>
     </row>
     <row r="22">
@@ -2022,19 +2022,19 @@
         <v>469020</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>456952</v>
+        <v>456812</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>478519</v>
+        <v>478663</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.933436872990175</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9094181622058349</v>
+        <v>0.9091406844511363</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9523404611833833</v>
+        <v>0.9526271447601735</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>605</v>
@@ -2043,19 +2043,19 @@
         <v>615031</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>597285</v>
+        <v>597355</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>630262</v>
+        <v>629313</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9086769474220463</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8824591265233203</v>
+        <v>0.8825617332186121</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9311800422252209</v>
+        <v>0.9297782820646473</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1091</v>
@@ -2064,19 +2064,19 @@
         <v>1084051</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1062720</v>
+        <v>1064970</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1100623</v>
+        <v>1102781</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9192263720507083</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9011382993794518</v>
+        <v>0.9030464478631599</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9332788536678934</v>
+        <v>0.9351087927860555</v>
       </c>
     </row>
     <row r="23">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8471</v>
+        <v>6449</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01523049134908442</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06070591178703362</v>
+        <v>0.04621556507026429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2429,19 +2429,19 @@
         <v>7405</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3164</v>
+        <v>3170</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13878</v>
+        <v>14708</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04439693112022426</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.018968933526377</v>
+        <v>0.01900612846090412</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08320634338490548</v>
+        <v>0.08818237963978022</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2450,19 +2450,19 @@
         <v>9530</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5130</v>
+        <v>4286</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17091</v>
+        <v>17122</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03111045436361693</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01674799651534221</v>
+        <v>0.01399157909156064</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05579053917237934</v>
+        <v>0.05589165629921081</v>
       </c>
     </row>
     <row r="5">
@@ -2479,19 +2479,19 @@
         <v>5184</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1950</v>
+        <v>2015</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11036</v>
+        <v>11572</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03714747611441391</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01397425192790789</v>
+        <v>0.01444078650096779</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0790840139167482</v>
+        <v>0.08292440890478478</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -2500,19 +2500,19 @@
         <v>20523</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13046</v>
+        <v>13424</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30556</v>
+        <v>30886</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1230501293569574</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07822197808540658</v>
+        <v>0.08048511138876653</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1832053744989834</v>
+        <v>0.1851837766550325</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -2521,19 +2521,19 @@
         <v>25707</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17417</v>
+        <v>16483</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38445</v>
+        <v>37160</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08391804417296755</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05685640090305585</v>
+        <v>0.05380846368382745</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1254999013730426</v>
+        <v>0.1213062810005048</v>
       </c>
     </row>
     <row r="6">
@@ -2550,19 +2550,19 @@
         <v>132238</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>125485</v>
+        <v>125511</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>136456</v>
+        <v>136433</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9476220325365017</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.899229924445728</v>
+        <v>0.8994156016719311</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.977851241613268</v>
+        <v>0.9776875142358039</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>132</v>
@@ -2571,19 +2571,19 @@
         <v>138859</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>127045</v>
+        <v>127822</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>147694</v>
+        <v>147137</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8325529395228184</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7617226444501654</v>
+        <v>0.7663763266876233</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8855254778843045</v>
+        <v>0.882182619210834</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>254</v>
@@ -2592,19 +2592,19 @@
         <v>271097</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>257252</v>
+        <v>257638</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>281212</v>
+        <v>281576</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8849715014634155</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8397762034753153</v>
+        <v>0.8410362350446532</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9179910335548784</v>
+        <v>0.9191803367435843</v>
       </c>
     </row>
     <row r="7">
@@ -2696,19 +2696,19 @@
         <v>4126</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9987</v>
+        <v>10426</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02664130823626216</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006744852641717899</v>
+        <v>0.006662587228277713</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06448460339418539</v>
+        <v>0.0673173289631407</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -2717,19 +2717,19 @@
         <v>13671</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7783</v>
+        <v>6926</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22844</v>
+        <v>22687</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07141715801046594</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04066148068183408</v>
+        <v>0.03618390556893539</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1193399578546376</v>
+        <v>0.1185203761485994</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>16</v>
@@ -2738,19 +2738,19 @@
         <v>17797</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11054</v>
+        <v>11045</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28958</v>
+        <v>26925</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05139164193647711</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03192143871676691</v>
+        <v>0.03189423441749094</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08362038137934724</v>
+        <v>0.07775075431245999</v>
       </c>
     </row>
     <row r="9">
@@ -2767,19 +2767,19 @@
         <v>16586</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9058</v>
+        <v>9061</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>26385</v>
+        <v>25950</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1070914139707483</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0584872144959159</v>
+        <v>0.05850601189082637</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1703585215714401</v>
+        <v>0.1675536946314733</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>20</v>
@@ -2788,19 +2788,19 @@
         <v>21542</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13845</v>
+        <v>13961</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>31171</v>
+        <v>32656</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1125389508341421</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07232915360224541</v>
+        <v>0.07293195260278627</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1628428167606725</v>
+        <v>0.1706012168511628</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>34</v>
@@ -2809,19 +2809,19 @@
         <v>38128</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>26445</v>
+        <v>27719</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>51299</v>
+        <v>51320</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1101025987029897</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0763651154701732</v>
+        <v>0.08004304127802368</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1481357820988345</v>
+        <v>0.1481960843683392</v>
       </c>
     </row>
     <row r="10">
@@ -2838,19 +2838,19 @@
         <v>134166</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>124716</v>
+        <v>124145</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142347</v>
+        <v>141937</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8662672777929895</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8052525911724051</v>
+        <v>0.8015646556847587</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9190930238339337</v>
+        <v>0.9164429372726891</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -2859,19 +2859,19 @@
         <v>156207</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>144309</v>
+        <v>145311</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>166068</v>
+        <v>166191</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8160438911553919</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.753888182284545</v>
+        <v>0.7591198007205231</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8675604496463669</v>
+        <v>0.8682005715184362</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>265</v>
@@ -2880,19 +2880,19 @@
         <v>290373</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>273682</v>
+        <v>276242</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>302446</v>
+        <v>303650</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8385057593605332</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.790307012572405</v>
+        <v>0.797701582043049</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.873370082800088</v>
+        <v>0.8768445503998763</v>
       </c>
     </row>
     <row r="11">
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6615</v>
+        <v>6516</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01024836164566847</v>
@@ -2996,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06385435621358487</v>
+        <v>0.06289564171915958</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -3005,19 +3005,19 @@
         <v>12995</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6673</v>
+        <v>6445</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22117</v>
+        <v>21947</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09215399209471126</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04732298572110737</v>
+        <v>0.04570074272361204</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1568371973820822</v>
+        <v>0.1556289461752073</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -3026,19 +3026,19 @@
         <v>14057</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7550</v>
+        <v>7599</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23797</v>
+        <v>23290</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05746596531254076</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03086289369990057</v>
+        <v>0.03106428216591858</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09728128743152223</v>
+        <v>0.09521149484196588</v>
       </c>
     </row>
     <row r="13">
@@ -3055,19 +3055,19 @@
         <v>9825</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4312</v>
+        <v>4398</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20023</v>
+        <v>19529</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09483416110462255</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04161865096465919</v>
+        <v>0.04245179922240409</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1932754026091275</v>
+        <v>0.1885112669367558</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -3076,19 +3076,19 @@
         <v>11801</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6387</v>
+        <v>6279</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19752</v>
+        <v>21093</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0836842539234601</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04529474598270944</v>
+        <v>0.04452476573554635</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1400631297882781</v>
+        <v>0.1495753326112526</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -3097,19 +3097,19 @@
         <v>21626</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13335</v>
+        <v>13810</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33590</v>
+        <v>33602</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0884063746958471</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0545128255698197</v>
+        <v>0.05645421928031209</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1373147064181847</v>
+        <v>0.1373665131031684</v>
       </c>
     </row>
     <row r="14">
@@ -3126,19 +3126,19 @@
         <v>92712</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>82825</v>
+        <v>82801</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98983</v>
+        <v>98242</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8949174772497089</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7994817144590796</v>
+        <v>0.7992554841873263</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9554502937388711</v>
+        <v>0.9483007131140641</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -3147,19 +3147,19 @@
         <v>116222</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>104327</v>
+        <v>105806</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>123873</v>
+        <v>124852</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8241617539818287</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7398108952445338</v>
+        <v>0.7502974557110106</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.878411732594679</v>
+        <v>0.8853579790618501</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>189</v>
@@ -3168,19 +3168,19 @@
         <v>208934</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>194931</v>
+        <v>195495</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>218933</v>
+        <v>219269</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8541276599916121</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7968825575456293</v>
+        <v>0.7991898987936367</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8950022684382321</v>
+        <v>0.8963779362663937</v>
       </c>
     </row>
     <row r="15">
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7002</v>
+        <v>6263</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01254040511692244</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04332532264082204</v>
+        <v>0.03875535194910951</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -3293,19 +3293,19 @@
         <v>12592</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7289</v>
+        <v>6377</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21127</v>
+        <v>20322</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05165965540610815</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02990223895817747</v>
+        <v>0.02616052792264192</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0866759256596548</v>
+        <v>0.08337237579899548</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -3314,19 +3314,19 @@
         <v>14619</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8247</v>
+        <v>8426</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23346</v>
+        <v>24286</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03606328097584544</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0203445724203571</v>
+        <v>0.02078698754522798</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05759243844595976</v>
+        <v>0.05991137436400244</v>
       </c>
     </row>
     <row r="17">
@@ -3343,19 +3343,19 @@
         <v>13493</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6623</v>
+        <v>6885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23099</v>
+        <v>24950</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0834866427553457</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04098365314547742</v>
+        <v>0.0425989383032103</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1429269373796684</v>
+        <v>0.1543791257811343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -3364,19 +3364,19 @@
         <v>20961</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12990</v>
+        <v>13733</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30694</v>
+        <v>31115</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08599578773234019</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05329160639871076</v>
+        <v>0.05633861156052287</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1259253517829884</v>
+        <v>0.1276497447774911</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -3385,19 +3385,19 @@
         <v>34454</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24642</v>
+        <v>22929</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50159</v>
+        <v>47017</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08499542181858348</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06078960289529751</v>
+        <v>0.05656354945426748</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1237387612460875</v>
+        <v>0.1159867007580782</v>
       </c>
     </row>
     <row r="18">
@@ -3414,19 +3414,19 @@
         <v>146094</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>135809</v>
+        <v>134305</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>153249</v>
+        <v>153238</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9039729521277319</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8403325354540284</v>
+        <v>0.8310284224786392</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9482457424176591</v>
+        <v>0.9481799762987275</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>198</v>
@@ -3435,19 +3435,19 @@
         <v>210196</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>199319</v>
+        <v>198469</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>219448</v>
+        <v>220163</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8623445568615516</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8177202566840267</v>
+        <v>0.8142324707226858</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9002999139541942</v>
+        <v>0.9032323732344313</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>333</v>
@@ -3456,19 +3456,19 @@
         <v>356290</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>338606</v>
+        <v>341833</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>367783</v>
+        <v>369334</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8789412972055711</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8353154277893114</v>
+        <v>0.8432762180072558</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9072923870186095</v>
+        <v>0.9111203734014224</v>
       </c>
     </row>
     <row r="19">
@@ -3560,19 +3560,19 @@
         <v>9340</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4110</v>
+        <v>4442</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16122</v>
+        <v>17561</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01668928192883238</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007344443479776142</v>
+        <v>0.00793657209537881</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0288075253360286</v>
+        <v>0.03137932105173549</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>42</v>
@@ -3581,19 +3581,19 @@
         <v>46663</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33470</v>
+        <v>34891</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>62149</v>
+        <v>61464</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06280553585950445</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04504870406799368</v>
+        <v>0.0469618009933872</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08364884033907113</v>
+        <v>0.082726602853663</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>51</v>
@@ -3602,19 +3602,19 @@
         <v>56003</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>43059</v>
+        <v>43309</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>73289</v>
+        <v>72059</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04299275738897415</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03305562097624634</v>
+        <v>0.03324808019503487</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05626334330537861</v>
+        <v>0.05531893053725689</v>
       </c>
     </row>
     <row r="21">
@@ -3631,19 +3631,19 @@
         <v>45087</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31532</v>
+        <v>32976</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>60545</v>
+        <v>61720</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08056499465765664</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05634292766091453</v>
+        <v>0.0589234341245168</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1081855025953456</v>
+        <v>0.1102855147548584</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>70</v>
@@ -3652,19 +3652,19 @@
         <v>74828</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>59345</v>
+        <v>58298</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>93370</v>
+        <v>92652</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.100713772968165</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07987493333336811</v>
+        <v>0.07846511099949767</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.125670567316295</v>
+        <v>0.1247043151316937</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>106</v>
@@ -3673,19 +3673,19 @@
         <v>119915</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>101166</v>
+        <v>97859</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>141918</v>
+        <v>142613</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09205731787712353</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07766384202245696</v>
+        <v>0.07512541863062672</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1089491407053273</v>
+        <v>0.1094820883165659</v>
       </c>
     </row>
     <row r="22">
@@ -3702,19 +3702,19 @@
         <v>505210</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>488697</v>
+        <v>488107</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>519736</v>
+        <v>518090</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.902745723413511</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8732386758232763</v>
+        <v>0.8721853117917192</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9287026310801871</v>
+        <v>0.9257599764123234</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>582</v>
@@ -3723,19 +3723,19 @@
         <v>621484</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>598568</v>
+        <v>599549</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>641161</v>
+        <v>642552</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8364806911723305</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8056373687786855</v>
+        <v>0.8069569309003108</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8629647523017429</v>
+        <v>0.8648362122553507</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1041</v>
@@ -3744,19 +3744,19 @@
         <v>1126694</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1099958</v>
+        <v>1102440</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1149232</v>
+        <v>1153699</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8649499247339023</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8444249699879461</v>
+        <v>0.846330012670885</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.882251773808817</v>
+        <v>0.8856813969082726</v>
       </c>
     </row>
     <row r="23">
@@ -4088,19 +4088,19 @@
         <v>4295</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1620</v>
+        <v>1640</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9507</v>
+        <v>9575</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03141120744252253</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01184888014665914</v>
+        <v>0.01199109984631705</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06953092909497283</v>
+        <v>0.07002439280205514</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4112,16 +4112,16 @@
         <v>1177</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9640</v>
+        <v>9782</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02078550717484547</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006789404004556497</v>
+        <v>0.006790401073166693</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05559782484683203</v>
+        <v>0.056417650754576</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -4130,19 +4130,19 @@
         <v>7899</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3550</v>
+        <v>3686</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15017</v>
+        <v>15605</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02547037673928037</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01144828187412958</v>
+        <v>0.01188597515749415</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04842175660567873</v>
+        <v>0.05031862526485336</v>
       </c>
     </row>
     <row r="5">
@@ -4159,19 +4159,19 @@
         <v>9983</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5675</v>
+        <v>5604</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16854</v>
+        <v>16382</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07300829864679627</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04150417882472612</v>
+        <v>0.04098159515169272</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1232619816547347</v>
+        <v>0.1198124299330171</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -4180,19 +4180,19 @@
         <v>21581</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13932</v>
+        <v>13478</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31251</v>
+        <v>31349</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.124461844300575</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08034826587184776</v>
+        <v>0.0777306500240733</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.180236459966687</v>
+        <v>0.180800995929048</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -4201,19 +4201,19 @@
         <v>31563</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22883</v>
+        <v>22404</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>43282</v>
+        <v>44350</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.101775984174356</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07378760471875641</v>
+        <v>0.0722419309012131</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1395621049344642</v>
+        <v>0.1430079830895587</v>
       </c>
     </row>
     <row r="6">
@@ -4230,19 +4230,19 @@
         <v>122456</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114796</v>
+        <v>114160</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>127772</v>
+        <v>127611</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.8955804939106812</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8395567746913826</v>
+        <v>0.8349074422185196</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9344576538941421</v>
+        <v>0.9332780906727609</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>134</v>
@@ -4251,19 +4251,19 @@
         <v>148206</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>138586</v>
+        <v>137355</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>156388</v>
+        <v>156726</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8547526485245796</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7992699682726503</v>
+        <v>0.7921716493010237</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9019403107976313</v>
+        <v>0.9038881252359811</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>265</v>
@@ -4272,19 +4272,19 @@
         <v>270663</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>257361</v>
+        <v>258581</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>280846</v>
+        <v>281662</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8727536390863636</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8298620699371387</v>
+        <v>0.8337945017215943</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9055885577033731</v>
+        <v>0.9082196925913277</v>
       </c>
     </row>
     <row r="7">
@@ -4376,19 +4376,19 @@
         <v>3579</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9104</v>
+        <v>9031</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02169579093011163</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005834639161669267</v>
+        <v>0.005807511758370298</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05519415825263878</v>
+        <v>0.0547541809756973</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -4397,19 +4397,19 @@
         <v>9441</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4093</v>
+        <v>3825</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17766</v>
+        <v>18768</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04307977662799949</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01867783120670622</v>
+        <v>0.01745157920442355</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08106137118994486</v>
+        <v>0.08563574262120825</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -4418,19 +4418,19 @@
         <v>13020</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6616</v>
+        <v>6636</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24294</v>
+        <v>22580</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03389712661628462</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0172242818591981</v>
+        <v>0.01727573654080367</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06324952716536969</v>
+        <v>0.05878522547897037</v>
       </c>
     </row>
     <row r="9">
@@ -4447,19 +4447,19 @@
         <v>12582</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6942</v>
+        <v>6802</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20729</v>
+        <v>20100</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07628254753012255</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04208482179780077</v>
+        <v>0.0412361638097312</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1256740468838805</v>
+        <v>0.1218615290385306</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -4468,19 +4468,19 @@
         <v>13279</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6972</v>
+        <v>6987</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23110</v>
+        <v>21595</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0605916012110833</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03181347952921482</v>
+        <v>0.03188232430996778</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1054452484359406</v>
+        <v>0.0985360780683117</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -4489,19 +4489,19 @@
         <v>25862</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>16438</v>
+        <v>17613</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>37053</v>
+        <v>37924</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06732956252643223</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04279524623025859</v>
+        <v>0.04585531601906446</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09646487508878958</v>
+        <v>0.09873484516409044</v>
       </c>
     </row>
     <row r="10">
@@ -4518,19 +4518,19 @@
         <v>148780</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>140505</v>
+        <v>140667</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154769</v>
+        <v>155367</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9020216615397658</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8518490979732101</v>
+        <v>0.8528337014533607</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9383293848813937</v>
+        <v>0.9419550877714156</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>164</v>
@@ -4539,19 +4539,19 @@
         <v>196442</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>185968</v>
+        <v>184188</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>205554</v>
+        <v>205414</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8963286221609172</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8485360470521678</v>
+        <v>0.8404167752461305</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9379030566415609</v>
+        <v>0.9372641504945359</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>321</v>
@@ -4560,19 +4560,19 @@
         <v>345222</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>330349</v>
+        <v>331476</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>356583</v>
+        <v>355819</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8987733108572832</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8600504325888372</v>
+        <v>0.8629854529882296</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9283497509129209</v>
+        <v>0.9263602517064143</v>
       </c>
     </row>
     <row r="11">
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5261</v>
+        <v>5901</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008429071060456823</v>
@@ -4676,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04572964608321903</v>
+        <v>0.05129388501653869</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -4685,19 +4685,19 @@
         <v>6027</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2199</v>
+        <v>2168</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13213</v>
+        <v>13185</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04226386836498389</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01541811931373053</v>
+        <v>0.01520343737002065</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09266331666187723</v>
+        <v>0.09246069919640661</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>6</v>
@@ -4706,19 +4706,19 @@
         <v>6996</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2933</v>
+        <v>3296</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14915</v>
+        <v>16115</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02715626627719187</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01138478441121084</v>
+        <v>0.01279350128108061</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05789421083223305</v>
+        <v>0.06255239244073607</v>
       </c>
     </row>
     <row r="13">
@@ -4735,19 +4735,19 @@
         <v>13310</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7674</v>
+        <v>7425</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22365</v>
+        <v>22135</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1156997326056703</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0667130566541715</v>
+        <v>0.06454183179845993</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1944163234087753</v>
+        <v>0.1924184953233172</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -4756,19 +4756,19 @@
         <v>15711</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8720</v>
+        <v>9092</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24499</v>
+        <v>25591</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1101787204917076</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06115179523752767</v>
+        <v>0.063758704467233</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1718042189172458</v>
+        <v>0.1794628623547906</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -4777,19 +4777,19 @@
         <v>29021</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17716</v>
+        <v>19849</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40689</v>
+        <v>40471</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1126439119745739</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06876342788152924</v>
+        <v>0.07704572193996047</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1579359286332495</v>
+        <v>0.1570889184167</v>
       </c>
     </row>
     <row r="14">
@@ -4806,19 +4806,19 @@
         <v>100756</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91959</v>
+        <v>91682</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>106724</v>
+        <v>106691</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8758711963338728</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7994027444527125</v>
+        <v>0.7969946134719832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9277514158124308</v>
+        <v>0.9274659124368412</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>100</v>
@@ -4827,19 +4827,19 @@
         <v>120858</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>110975</v>
+        <v>109961</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>130503</v>
+        <v>128312</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8475574111433085</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.778250661767973</v>
+        <v>0.7711338818216508</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9151954414858441</v>
+        <v>0.8998267823398288</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>200</v>
@@ -4848,19 +4848,19 @@
         <v>221614</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>208295</v>
+        <v>207692</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>233536</v>
+        <v>232165</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8601998217482342</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8085022697271868</v>
+        <v>0.8061623450101747</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9064749350308904</v>
+        <v>0.9011518261095073</v>
       </c>
     </row>
     <row r="15">
@@ -4965,19 +4965,19 @@
         <v>15402</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8035</v>
+        <v>8303</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25849</v>
+        <v>26399</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06344022518989109</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03309710625239329</v>
+        <v>0.03419954254321594</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1064687889344662</v>
+        <v>0.108733936932788</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -4986,19 +4986,19 @@
         <v>15402</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8139</v>
+        <v>8536</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25959</v>
+        <v>26375</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03690012685038873</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01949949335137832</v>
+        <v>0.0204496779041399</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06219274374828437</v>
+        <v>0.06318968839656897</v>
       </c>
     </row>
     <row r="17">
@@ -5015,19 +5015,19 @@
         <v>5170</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1691</v>
+        <v>2019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11395</v>
+        <v>11968</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02961016361159322</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009685170827400207</v>
+        <v>0.01156252216010622</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06525583637229353</v>
+        <v>0.06853990608577772</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -5036,19 +5036,19 @@
         <v>27084</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18507</v>
+        <v>18072</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41306</v>
+        <v>39038</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1115569538525943</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07622796439059663</v>
+        <v>0.07443665952450267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.170136915236339</v>
+        <v>0.160794211622926</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -5057,19 +5057,19 @@
         <v>32254</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>21285</v>
+        <v>22677</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45293</v>
+        <v>45424</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07727466899164306</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05099444292152242</v>
+        <v>0.05432831944139853</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1085124599993504</v>
+        <v>0.1088259659446199</v>
       </c>
     </row>
     <row r="18">
@@ -5086,19 +5086,19 @@
         <v>169448</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>163223</v>
+        <v>162650</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>172927</v>
+        <v>172599</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9703898363884068</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9347441636277064</v>
+        <v>0.9314600939142222</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9903148291725998</v>
+        <v>0.988437477839894</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>165</v>
@@ -5107,19 +5107,19 @@
         <v>200295</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>183961</v>
+        <v>186097</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>211377</v>
+        <v>212639</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.8250028209575145</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7577247696238614</v>
+        <v>0.7665218978942687</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8706477411534185</v>
+        <v>0.8758487183320049</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>349</v>
@@ -5128,19 +5128,19 @@
         <v>369743</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>353211</v>
+        <v>354012</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>382581</v>
+        <v>381823</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8858252041579682</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8462163180651772</v>
+        <v>0.8481352219361485</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9165805799303585</v>
+        <v>0.9147654344399878</v>
       </c>
     </row>
     <row r="19">
@@ -5232,19 +5232,19 @@
         <v>8843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4480</v>
+        <v>4372</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15795</v>
+        <v>15683</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01495470641487596</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007575407843974814</v>
+        <v>0.007392828858667606</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02671104844607229</v>
+        <v>0.02652089315223238</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -5253,19 +5253,19 @@
         <v>34474</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22970</v>
+        <v>23425</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48506</v>
+        <v>49140</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04431532176391808</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02952687742524723</v>
+        <v>0.03011238699770346</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06235200282470674</v>
+        <v>0.0631679132961802</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>37</v>
@@ -5274,19 +5274,19 @@
         <v>43317</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30200</v>
+        <v>29779</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>59117</v>
+        <v>58879</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03163565054998427</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02205592730794532</v>
+        <v>0.02174793492632738</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04317427141102627</v>
+        <v>0.04300033680585926</v>
       </c>
     </row>
     <row r="21">
@@ -5303,19 +5303,19 @@
         <v>41045</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>30598</v>
+        <v>30306</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>53936</v>
+        <v>53955</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06941123842099924</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05174375981291721</v>
+        <v>0.05125157188660934</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09121230182687656</v>
+        <v>0.0912444786681717</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>65</v>
@@ -5324,19 +5324,19 @@
         <v>77655</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>63790</v>
+        <v>60643</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>97024</v>
+        <v>98122</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09982240959474663</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08200008651613955</v>
+        <v>0.07795433290845119</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1247211828574796</v>
+        <v>0.1261314202284173</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>110</v>
@@ -5345,19 +5345,19 @@
         <v>118700</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>98774</v>
+        <v>99459</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>142066</v>
+        <v>140034</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08668904549015681</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07213678578180704</v>
+        <v>0.07263712790101752</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1037541264615351</v>
+        <v>0.1022697290475787</v>
       </c>
     </row>
     <row r="22">
@@ -5374,19 +5374,19 @@
         <v>541440</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>527953</v>
+        <v>527034</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>553587</v>
+        <v>553530</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9156340551641248</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8928253176804795</v>
+        <v>0.8912717610633824</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9361757575262215</v>
+        <v>0.9360795462311947</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>563</v>
@@ -5395,19 +5395,19 @@
         <v>665802</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>641979</v>
+        <v>643084</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>684181</v>
+        <v>687257</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8558622686413353</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8252394169374542</v>
+        <v>0.8266599778462913</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8794874665014789</v>
+        <v>0.88344224388018</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1135</v>
@@ -5416,19 +5416,19 @@
         <v>1207242</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1180234</v>
+        <v>1182439</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1231501</v>
+        <v>1230158</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8816753039598589</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8619506951876457</v>
+        <v>0.8635614307131324</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8993922647075401</v>
+        <v>0.8984115954525252</v>
       </c>
     </row>
     <row r="23">
@@ -5760,19 +5760,19 @@
         <v>3796</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1764</v>
+        <v>1895</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7134</v>
+        <v>6995</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02324365653081642</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0107988551225835</v>
+        <v>0.01160462119193275</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04368576476421639</v>
+        <v>0.04283015825392077</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -5781,19 +5781,19 @@
         <v>7420</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4201</v>
+        <v>4699</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11622</v>
+        <v>12338</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03884468559618443</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02198956603927933</v>
+        <v>0.02459895612688988</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06083715126706086</v>
+        <v>0.06458499317946952</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -5802,19 +5802,19 @@
         <v>11216</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7539</v>
+        <v>7378</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16404</v>
+        <v>16223</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03165428486785905</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02127613252538241</v>
+        <v>0.02082248133318614</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04629448318615569</v>
+        <v>0.04578441738293696</v>
       </c>
     </row>
     <row r="5">
@@ -5831,19 +5831,19 @@
         <v>10442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5904</v>
+        <v>6049</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16285</v>
+        <v>16735</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.06393815112929883</v>
+        <v>0.06393815112929885</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03615361839736952</v>
+        <v>0.03703650845853326</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09971602966779709</v>
+        <v>0.1024687527269053</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -5852,19 +5852,19 @@
         <v>20549</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15218</v>
+        <v>14995</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26997</v>
+        <v>27122</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1075706669587161</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07966515336669645</v>
+        <v>0.07849610804579249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1413247126997444</v>
+        <v>0.1419784355567759</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>63</v>
@@ -5873,19 +5873,19 @@
         <v>30991</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24215</v>
+        <v>23917</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>38581</v>
+        <v>39383</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08746075803642862</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06833903560186866</v>
+        <v>0.06749535739450113</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.108879986175729</v>
+        <v>0.1111428904092054</v>
       </c>
     </row>
     <row r="6">
@@ -5902,19 +5902,19 @@
         <v>149076</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>142976</v>
+        <v>142233</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>154072</v>
+        <v>153962</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9128181923398846</v>
+        <v>0.9128181923398847</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8754648998838156</v>
+        <v>0.8709201533587493</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9434100795763467</v>
+        <v>0.9427366587590503</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>384</v>
@@ -5923,19 +5923,19 @@
         <v>163059</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>156564</v>
+        <v>156228</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>169953</v>
+        <v>169727</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.8535846474450994</v>
+        <v>0.8535846474450993</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8195810332344329</v>
+        <v>0.8178243338269282</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8896699711162568</v>
+        <v>0.88848593753553</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>610</v>
@@ -5944,19 +5944,19 @@
         <v>312135</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>302597</v>
+        <v>303258</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>319448</v>
+        <v>320493</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.8808849570957122</v>
+        <v>0.8808849570957124</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8539661762666492</v>
+        <v>0.8558325590450776</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9015219928115294</v>
+        <v>0.9044711563357118</v>
       </c>
     </row>
     <row r="7">
@@ -6048,19 +6048,19 @@
         <v>6539</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3043</v>
+        <v>3457</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11516</v>
+        <v>11562</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0366965484066275</v>
+        <v>0.03669654840662751</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01707794886565206</v>
+        <v>0.01940181561397575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06462524292219352</v>
+        <v>0.0648804128135545</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -6069,19 +6069,19 @@
         <v>15460</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10265</v>
+        <v>10720</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21868</v>
+        <v>21625</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0638731982516041</v>
+        <v>0.06387319825160409</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04240967204297697</v>
+        <v>0.04428919110933505</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09034739658785217</v>
+        <v>0.08934355547445821</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>39</v>
@@ -6090,19 +6090,19 @@
         <v>21999</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15569</v>
+        <v>15947</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>29910</v>
+        <v>29628</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05234897255023636</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03704787067373951</v>
+        <v>0.03794741150229972</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.071173664542123</v>
+        <v>0.07050233859721826</v>
       </c>
     </row>
     <row r="9">
@@ -6119,19 +6119,19 @@
         <v>10905</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6670</v>
+        <v>6587</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17111</v>
+        <v>17532</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06119380624240295</v>
+        <v>0.06119380624240296</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03742939993551064</v>
+        <v>0.03696275093068849</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09602049023927281</v>
+        <v>0.09838365917056462</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>39</v>
@@ -6140,19 +6140,19 @@
         <v>20150</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14431</v>
+        <v>14374</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26991</v>
+        <v>26293</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08325118641492253</v>
+        <v>0.08325118641492255</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05962110034716776</v>
+        <v>0.05938682555186533</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1115128327305514</v>
+        <v>0.1086295690484718</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>56</v>
@@ -6161,19 +6161,19 @@
         <v>31055</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23937</v>
+        <v>23759</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>39883</v>
+        <v>39575</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07389778086497484</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05695942091919966</v>
+        <v>0.05653696288532756</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09490544049606378</v>
+        <v>0.09417245948734942</v>
       </c>
     </row>
     <row r="10">
@@ -6190,19 +6190,19 @@
         <v>160760</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>153556</v>
+        <v>153425</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>166317</v>
+        <v>166212</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9021096453509695</v>
+        <v>0.9021096453509697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8616870611396116</v>
+        <v>0.8609528567506091</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9332934036856338</v>
+        <v>0.9327045813433669</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>381</v>
@@ -6211,19 +6211,19 @@
         <v>206430</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>197290</v>
+        <v>198342</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>213487</v>
+        <v>213824</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8528756153334733</v>
+        <v>0.8528756153334732</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8151128117915286</v>
+        <v>0.8194580349631353</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8820299544561252</v>
+        <v>0.8834254462093278</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>608</v>
@@ -6232,19 +6232,19 @@
         <v>367189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>355680</v>
+        <v>355868</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>376563</v>
+        <v>376803</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8737532465847888</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8463663642353112</v>
+        <v>0.8468156059334826</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8960599815330741</v>
+        <v>0.8966323715253212</v>
       </c>
     </row>
     <row r="11">
@@ -6336,19 +6336,19 @@
         <v>2378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6638</v>
+        <v>6136</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01488475268219851</v>
+        <v>0.0148847526821985</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.003204383962255588</v>
+        <v>0.003154155992412011</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04154471128141975</v>
+        <v>0.03840389241743351</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -6357,19 +6357,19 @@
         <v>4400</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1779</v>
+        <v>1742</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8264</v>
+        <v>8684</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02524634953352001</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01020890512932984</v>
+        <v>0.009991348386027169</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04741321001250555</v>
+        <v>0.04981956756184439</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -6378,19 +6378,19 @@
         <v>6779</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3415</v>
+        <v>3461</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11814</v>
+        <v>11807</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.02029065762971455</v>
+        <v>0.02029065762971454</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01022064448657069</v>
+        <v>0.01035943527286992</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03536146968840777</v>
+        <v>0.03534195027559622</v>
       </c>
     </row>
     <row r="13">
@@ -6407,19 +6407,19 @@
         <v>18108</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11776</v>
+        <v>11592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26656</v>
+        <v>26064</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1133241629460802</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07369959012914488</v>
+        <v>0.07254981600447126</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.166825221147034</v>
+        <v>0.1631192403776057</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -6428,19 +6428,19 @@
         <v>26046</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18587</v>
+        <v>19419</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33468</v>
+        <v>35738</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1494283359968784</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1066359437534792</v>
+        <v>0.1114094818813392</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1920124210544554</v>
+        <v>0.2050341609885786</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -6449,19 +6449,19 @@
         <v>44153</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34680</v>
+        <v>33923</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54537</v>
+        <v>55793</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.132160615523985</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1038044538826741</v>
+        <v>0.1015407637266171</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1632427257364172</v>
+        <v>0.1670014244395778</v>
       </c>
     </row>
     <row r="14">
@@ -6478,19 +6478,19 @@
         <v>139299</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>130639</v>
+        <v>131244</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146130</v>
+        <v>146100</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8717910843717214</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8175929307104772</v>
+        <v>0.8213809903062953</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9145438198689863</v>
+        <v>0.9143536538116579</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>240</v>
@@ -6499,19 +6499,19 @@
         <v>143855</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>135729</v>
+        <v>133681</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>151777</v>
+        <v>151207</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8253253144696018</v>
+        <v>0.8253253144696016</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7787052632034834</v>
+        <v>0.7669529006485128</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8707725881726122</v>
+        <v>0.8675038020107626</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>408</v>
@@ -6520,19 +6520,19 @@
         <v>283153</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>271179</v>
+        <v>271355</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>293585</v>
+        <v>293731</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8475487268463006</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8117069999524991</v>
+        <v>0.8122333457834712</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8787726890087028</v>
+        <v>0.8792103085202786</v>
       </c>
     </row>
     <row r="15">
@@ -6624,19 +6624,19 @@
         <v>4980</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2507</v>
+        <v>2075</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9287</v>
+        <v>9037</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02322493014355325</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0116911998030429</v>
+        <v>0.009678050569019886</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04330707087378385</v>
+        <v>0.04214216446192295</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -6645,19 +6645,19 @@
         <v>16755</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10966</v>
+        <v>10583</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24246</v>
+        <v>24671</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05684321905775779</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03720435775893784</v>
+        <v>0.03590529549914907</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08225903009872892</v>
+        <v>0.08369992646830955</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -6666,19 +6666,19 @@
         <v>21735</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15076</v>
+        <v>15049</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30284</v>
+        <v>30604</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04268540301522758</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02960860590646915</v>
+        <v>0.02955514493897971</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05947536384147387</v>
+        <v>0.06010331896677099</v>
       </c>
     </row>
     <row r="17">
@@ -6695,19 +6695,19 @@
         <v>18428</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13001</v>
+        <v>12957</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26072</v>
+        <v>25876</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08593536048816501</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06062835806980942</v>
+        <v>0.06042594793161598</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.121585343891603</v>
+        <v>0.1206688363057798</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>71</v>
@@ -6716,19 +6716,19 @@
         <v>40686</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32206</v>
+        <v>32311</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50420</v>
+        <v>50327</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1380351954566415</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1092666588828102</v>
+        <v>0.1096220507520344</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1710599715555298</v>
+        <v>0.1707457269780033</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>99</v>
@@ -6737,19 +6737,19 @@
         <v>59114</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>48522</v>
+        <v>48687</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>69913</v>
+        <v>71151</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1160941656436039</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09529397882966258</v>
+        <v>0.09561662973998872</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.137303813668769</v>
+        <v>0.1397357475423481</v>
       </c>
     </row>
     <row r="18">
@@ -6766,19 +6766,19 @@
         <v>191028</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>182272</v>
+        <v>183114</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>197145</v>
+        <v>197621</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8908397093682816</v>
+        <v>0.8908397093682815</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8500058595844208</v>
+        <v>0.8539351598617472</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9193629650427446</v>
+        <v>0.9215855306913578</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>427</v>
@@ -6787,19 +6787,19 @@
         <v>237310</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>225873</v>
+        <v>226483</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>248435</v>
+        <v>247458</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.8051215854856009</v>
+        <v>0.8051215854856008</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.7663221457642246</v>
+        <v>0.7683894242973414</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8428670412360231</v>
+        <v>0.8395511378252339</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>717</v>
@@ -6808,19 +6808,19 @@
         <v>428338</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>415705</v>
+        <v>413555</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>440115</v>
+        <v>440706</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.8412204313411684</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.8164099472890924</v>
+        <v>0.812188926128825</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8643504843634043</v>
+        <v>0.8655100955551374</v>
       </c>
     </row>
     <row r="19">
@@ -6912,19 +6912,19 @@
         <v>17694</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12344</v>
+        <v>12142</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25309</v>
+        <v>24714</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02472145226869769</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01724673844082818</v>
+        <v>0.01696411688558693</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03536017856351387</v>
+        <v>0.03452869984899154</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>78</v>
@@ -6933,19 +6933,19 @@
         <v>44035</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34702</v>
+        <v>35498</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55314</v>
+        <v>54967</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04881317219827377</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03846742826236174</v>
+        <v>0.03935007258740795</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06131595353236316</v>
+        <v>0.0609314722667855</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>109</v>
@@ -6954,19 +6954,19 @@
         <v>61729</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>50207</v>
+        <v>50769</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>73483</v>
+        <v>74277</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03815502652372375</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03103331678065337</v>
+        <v>0.03138036449796443</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04542008979494901</v>
+        <v>0.04591064861535715</v>
       </c>
     </row>
     <row r="21">
@@ -6983,19 +6983,19 @@
         <v>57882</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>45963</v>
+        <v>46454</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>71992</v>
+        <v>70497</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08087040176498883</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0642171392012004</v>
+        <v>0.06490294085547239</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1005841460475632</v>
+        <v>0.09849521071551126</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>195</v>
@@ -7004,19 +7004,19 @@
         <v>107431</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>93636</v>
+        <v>92347</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>122116</v>
+        <v>122464</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1190868467433723</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1037960516415292</v>
+        <v>0.1023663473941046</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1353651583410598</v>
+        <v>0.1357512760202762</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>279</v>
@@ -7025,19 +7025,19 @@
         <v>165313</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>147327</v>
+        <v>145886</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>186610</v>
+        <v>185478</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1021799410125367</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09106316968732871</v>
+        <v>0.09017218786710898</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1153441117049708</v>
+        <v>0.1146444262759246</v>
       </c>
     </row>
     <row r="22">
@@ -7054,19 +7054,19 @@
         <v>640162</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>625021</v>
+        <v>625174</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>652726</v>
+        <v>653635</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8944081459663134</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8732543923381495</v>
+        <v>0.8734677832670574</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9119625026006413</v>
+        <v>0.9132320443770124</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1432</v>
@@ -7075,19 +7075,19 @@
         <v>750654</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>733503</v>
+        <v>734165</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>767974</v>
+        <v>767938</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8320999810583539</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8130876078977372</v>
+        <v>0.8138217208280298</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8512987755635494</v>
+        <v>0.8512592513797631</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2343</v>
@@ -7096,19 +7096,19 @@
         <v>1390816</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1367467</v>
+        <v>1368040</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1410644</v>
+        <v>1412038</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8596650324637396</v>
+        <v>0.8596650324637397</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8452329705015112</v>
+        <v>0.8455872650332411</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8719208586082217</v>
+        <v>0.872782621423528</v>
       </c>
     </row>
     <row r="23">
